--- a/Implementation/Python/model3/M3_output_alloc_lteX.xlsx
+++ b/Implementation/Python/model3/M3_output_alloc_lteX.xlsx
@@ -1,44 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwanakombohussein/Desktop/SPA_using_IP/Implementation/fyp_python/model3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EB84FC-9E10-0D4F-A165-6D1445C9ABEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="30420" windowHeight="20320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Model3_alloc" sheetId="1" r:id="rId1"/>
     <sheet name="Model3_alloc_ranks" sheetId="2" r:id="rId2"/>
     <sheet name="Model3_alloc_lect_count" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,28 +43,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -132,7 +100,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,27 +132,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,24 +166,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,14 +341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FY109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:181">
       <c r="A1">
         <v>1</v>
       </c>
@@ -961,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:181">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1506,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:181">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2051,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:181">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2596,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:181">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3141,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:181">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3686,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:181">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4231,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:181">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4776,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:181">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5321,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:181">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5404,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -5866,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:181">
       <c r="A11">
         <v>0</v>
       </c>
@@ -5958,19 +5890,19 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -6411,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:181">
       <c r="A12">
         <v>0</v>
       </c>
@@ -6488,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -6521,10 +6453,10 @@
         <v>1</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -6956,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:181">
       <c r="A13">
         <v>0</v>
       </c>
@@ -7018,13 +6950,13 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -7075,19 +7007,19 @@
         <v>1</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS13">
         <v>0</v>
@@ -7501,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:181">
       <c r="A14">
         <v>0</v>
       </c>
@@ -7578,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -7587,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -7596,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -7632,25 +7564,25 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS14">
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -8046,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:181">
       <c r="A15">
         <v>0</v>
       </c>
@@ -8591,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:181">
       <c r="A16">
         <v>0</v>
       </c>
@@ -8719,10 +8651,10 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS16">
         <v>0</v>
@@ -8764,10 +8696,10 @@
         <v>1</v>
       </c>
       <c r="BF16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BH16">
         <v>0</v>
@@ -9136,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:181">
       <c r="A17">
         <v>0</v>
       </c>
@@ -9681,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:181">
       <c r="A18">
         <v>0</v>
       </c>
@@ -9782,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -9821,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV18">
         <v>0</v>
@@ -9869,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="BK18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL18">
         <v>0</v>
@@ -10226,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:181">
       <c r="A19">
         <v>0</v>
       </c>
@@ -10303,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -10327,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -10771,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:181">
       <c r="A20">
         <v>0</v>
       </c>
@@ -11316,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:181">
       <c r="A21">
         <v>0</v>
       </c>
@@ -11405,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -11861,7 +11793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:181">
       <c r="A22">
         <v>0</v>
       </c>
@@ -12085,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="BW22">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX22">
         <v>1</v>
@@ -12406,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:181">
       <c r="A23">
         <v>0</v>
       </c>
@@ -12483,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -12528,7 +12460,7 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -12591,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK23">
         <v>0</v>
@@ -12951,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:181">
       <c r="A24">
         <v>0</v>
       </c>
@@ -13052,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -13187,13 +13119,13 @@
         <v>0</v>
       </c>
       <c r="CA24">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB24">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC24">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD24">
         <v>0</v>
@@ -13496,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:181">
       <c r="A25">
         <v>0</v>
       </c>
@@ -13618,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP25">
         <v>0</v>
@@ -13744,7 +13676,7 @@
         <v>0</v>
       </c>
       <c r="CE25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF25">
         <v>0</v>
@@ -14041,7 +13973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:181">
       <c r="A26">
         <v>0</v>
       </c>
@@ -14139,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH26">
         <v>1</v>
@@ -14163,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP26">
         <v>0</v>
@@ -14172,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS26">
         <v>0</v>
@@ -14586,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:181">
       <c r="A27">
         <v>0</v>
       </c>
@@ -14663,13 +14595,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC27">
         <v>1</v>
@@ -14837,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="CF27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG27">
         <v>0</v>
@@ -15131,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:181">
       <c r="A28">
         <v>0</v>
       </c>
@@ -15226,10 +15158,10 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -15277,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -15316,10 +15248,10 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK28">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL28">
         <v>0</v>
@@ -15364,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="BZ28">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA28">
         <v>0</v>
@@ -15388,7 +15320,7 @@
         <v>1</v>
       </c>
       <c r="CH28">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CI28">
         <v>0</v>
@@ -15676,7 +15608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:181">
       <c r="A29">
         <v>0</v>
       </c>
@@ -16221,7 +16153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:181">
       <c r="A30">
         <v>0</v>
       </c>
@@ -16316,7 +16248,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -16409,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="BK30">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL30">
         <v>0</v>
@@ -16475,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="CG30">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH30">
         <v>0</v>
@@ -16766,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:181">
       <c r="A31">
         <v>0</v>
       </c>
@@ -16870,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ31">
         <v>0</v>
@@ -17044,10 +16976,10 @@
         <v>1</v>
       </c>
       <c r="CO31">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP31">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ31">
         <v>0</v>
@@ -17311,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:181">
       <c r="A32">
         <v>0</v>
       </c>
@@ -17856,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:181">
       <c r="A33">
         <v>0</v>
       </c>
@@ -18401,7 +18333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:181">
       <c r="A34">
         <v>0</v>
       </c>
@@ -18481,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -18490,7 +18422,7 @@
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -18529,10 +18461,10 @@
         <v>0</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS34">
         <v>0</v>
@@ -18946,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:181">
       <c r="A35">
         <v>0</v>
       </c>
@@ -19491,7 +19423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:181">
       <c r="A36">
         <v>0</v>
       </c>
@@ -19559,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -19568,13 +19500,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -19619,7 +19551,7 @@
         <v>0</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -19628,7 +19560,7 @@
         <v>0</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -20036,7 +19968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:181">
       <c r="A37">
         <v>0</v>
       </c>
@@ -20581,7 +20513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:181">
       <c r="A38">
         <v>0</v>
       </c>
@@ -21126,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:181">
       <c r="A39">
         <v>0</v>
       </c>
@@ -21227,7 +21159,7 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI39">
         <v>0</v>
@@ -21248,13 +21180,13 @@
         <v>0</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP39">
         <v>0</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -21671,7 +21603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:181">
       <c r="A40">
         <v>0</v>
       </c>
@@ -21754,7 +21686,7 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -21772,7 +21704,7 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI40">
         <v>0</v>
@@ -21811,7 +21743,7 @@
         <v>0</v>
       </c>
       <c r="AU40">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV40">
         <v>0</v>
@@ -21859,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="BK40">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL40">
         <v>0</v>
@@ -21868,7 +21800,7 @@
         <v>0</v>
       </c>
       <c r="BN40">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO40">
         <v>0</v>
@@ -22000,7 +21932,7 @@
         <v>1</v>
       </c>
       <c r="DF40">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG40">
         <v>0</v>
@@ -22216,7 +22148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:181">
       <c r="A41">
         <v>0</v>
       </c>
@@ -22293,7 +22225,7 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -22317,7 +22249,7 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -22404,7 +22336,7 @@
         <v>0</v>
       </c>
       <c r="BK41">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL41">
         <v>0</v>
@@ -22542,7 +22474,7 @@
         <v>0</v>
       </c>
       <c r="DE41">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF41">
         <v>0</v>
@@ -22761,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:181">
       <c r="A42">
         <v>0</v>
       </c>
@@ -23306,7 +23238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:181">
       <c r="A43">
         <v>0</v>
       </c>
@@ -23374,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -23383,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA43">
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -23407,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI43">
         <v>0</v>
@@ -23428,7 +23360,7 @@
         <v>0</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP43">
         <v>0</v>
@@ -23851,7 +23783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:181">
       <c r="A44">
         <v>0</v>
       </c>
@@ -23946,7 +23878,7 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG44">
         <v>0</v>
@@ -24036,7 +23968,7 @@
         <v>0</v>
       </c>
       <c r="BJ44">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK44">
         <v>0</v>
@@ -24084,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="BZ44">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA44">
         <v>0</v>
@@ -24162,7 +24094,7 @@
         <v>0</v>
       </c>
       <c r="CZ44">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DA44">
         <v>0</v>
@@ -24396,7 +24328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:181">
       <c r="A45">
         <v>0</v>
       </c>
@@ -24467,7 +24399,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -24488,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -24656,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="CI45">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ45">
         <v>0</v>
@@ -24737,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="DJ45">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK45">
         <v>0</v>
@@ -24941,7 +24873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:181">
       <c r="A46">
         <v>0</v>
       </c>
@@ -25285,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="DK46">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL46">
         <v>0</v>
@@ -25486,7 +25418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:181">
       <c r="A47">
         <v>0</v>
       </c>
@@ -25557,7 +25489,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -25761,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="CN47">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO47">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP47">
         <v>1</v>
@@ -25836,10 +25768,10 @@
         <v>0</v>
       </c>
       <c r="DM47">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN47">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO47">
         <v>0</v>
@@ -26031,7 +25963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:181">
       <c r="A48">
         <v>0</v>
       </c>
@@ -26153,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP48">
         <v>0</v>
@@ -26228,7 +26160,7 @@
         <v>0</v>
       </c>
       <c r="BN48">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO48">
         <v>0</v>
@@ -26291,7 +26223,7 @@
         <v>0</v>
       </c>
       <c r="CI48">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ48">
         <v>0</v>
@@ -26387,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="DO48">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP48">
         <v>0</v>
@@ -26576,7 +26508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:181">
       <c r="A49">
         <v>0</v>
       </c>
@@ -26653,13 +26585,13 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA49">
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -26677,7 +26609,7 @@
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -26935,7 +26867,7 @@
         <v>0</v>
       </c>
       <c r="DP49">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ49">
         <v>0</v>
@@ -27121,7 +27053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:181">
       <c r="A50">
         <v>0</v>
       </c>
@@ -27666,7 +27598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:181">
       <c r="A51">
         <v>0</v>
       </c>
@@ -27842,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="BG51">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BH51">
         <v>0</v>
@@ -28211,7 +28143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:181">
       <c r="A52">
         <v>0</v>
       </c>
@@ -28465,7 +28397,7 @@
         <v>0</v>
       </c>
       <c r="CG52">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH52">
         <v>0</v>
@@ -28591,10 +28523,10 @@
         <v>1</v>
       </c>
       <c r="DW52">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX52">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY52">
         <v>0</v>
@@ -28756,7 +28688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:181">
       <c r="A53">
         <v>0</v>
       </c>
@@ -28848,10 +28780,10 @@
         <v>0</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG53">
         <v>0</v>
@@ -29100,7 +29032,7 @@
         <v>0</v>
       </c>
       <c r="DK53">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL53">
         <v>0</v>
@@ -29301,7 +29233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:181">
       <c r="A54">
         <v>0</v>
       </c>
@@ -29378,7 +29310,7 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -29846,7 +29778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:181">
       <c r="A55">
         <v>0</v>
       </c>
@@ -30031,7 +29963,7 @@
         <v>0</v>
       </c>
       <c r="BJ55">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK55">
         <v>0</v>
@@ -30079,7 +30011,7 @@
         <v>0</v>
       </c>
       <c r="BZ55">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA55">
         <v>0</v>
@@ -30391,7 +30323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:181">
       <c r="A56">
         <v>0</v>
       </c>
@@ -30471,7 +30403,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -30483,7 +30415,7 @@
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -30936,7 +30868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:181">
       <c r="A57">
         <v>0</v>
       </c>
@@ -31031,7 +30963,7 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG57">
         <v>0</v>
@@ -31061,13 +30993,13 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ57">
         <v>0</v>
       </c>
       <c r="AR57">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS57">
         <v>0</v>
@@ -31133,7 +31065,7 @@
         <v>0</v>
       </c>
       <c r="BN57">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO57">
         <v>0</v>
@@ -31295,7 +31227,7 @@
         <v>0</v>
       </c>
       <c r="DP57">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ57">
         <v>0</v>
@@ -31481,7 +31413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:181">
       <c r="A58">
         <v>0</v>
       </c>
@@ -31564,10 +31496,10 @@
         <v>0</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -31582,7 +31514,7 @@
         <v>0</v>
       </c>
       <c r="AH58">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI58">
         <v>0</v>
@@ -31618,10 +31550,10 @@
         <v>0</v>
       </c>
       <c r="AT58">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU58">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV58">
         <v>0</v>
@@ -31672,7 +31604,7 @@
         <v>0</v>
       </c>
       <c r="BL58">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM58">
         <v>0</v>
@@ -31726,7 +31658,7 @@
         <v>0</v>
       </c>
       <c r="CD58">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE58">
         <v>0</v>
@@ -32026,7 +31958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:181">
       <c r="A59">
         <v>0</v>
       </c>
@@ -32571,7 +32503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:181">
       <c r="A60">
         <v>0</v>
       </c>
@@ -33116,7 +33048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:181">
       <c r="A61">
         <v>0</v>
       </c>
@@ -33193,7 +33125,7 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA61">
         <v>0</v>
@@ -33238,7 +33170,7 @@
         <v>0</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP61">
         <v>0</v>
@@ -33355,13 +33287,13 @@
         <v>0</v>
       </c>
       <c r="CB61">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC61">
         <v>0</v>
       </c>
       <c r="CD61">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE61">
         <v>0</v>
@@ -33556,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="EQ61">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER61">
         <v>0</v>
@@ -33661,7 +33593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:181">
       <c r="A62">
         <v>0</v>
       </c>
@@ -34206,7 +34138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:181">
       <c r="A63">
         <v>0</v>
       </c>
@@ -34283,13 +34215,13 @@
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA63">
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -34319,7 +34251,7 @@
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM63">
         <v>0</v>
@@ -34343,7 +34275,7 @@
         <v>0</v>
       </c>
       <c r="AT63">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -34751,7 +34683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:181">
       <c r="A64">
         <v>0</v>
       </c>
@@ -35296,7 +35228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:181">
       <c r="A65">
         <v>0</v>
       </c>
@@ -35841,7 +35773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:181">
       <c r="A66">
         <v>0</v>
       </c>
@@ -35909,7 +35841,7 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X66">
         <v>0</v>
@@ -35918,7 +35850,7 @@
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA66">
         <v>0</v>
@@ -35939,7 +35871,7 @@
         <v>0</v>
       </c>
       <c r="AG66">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH66">
         <v>0</v>
@@ -36098,7 +36030,7 @@
         <v>0</v>
       </c>
       <c r="CH66">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CI66">
         <v>0</v>
@@ -36386,7 +36318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:181">
       <c r="A67">
         <v>0</v>
       </c>
@@ -36463,13 +36395,13 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA67">
         <v>0</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -36487,7 +36419,7 @@
         <v>0</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI67">
         <v>0</v>
@@ -36931,7 +36863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:181">
       <c r="A68">
         <v>0</v>
       </c>
@@ -37476,7 +37408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:181">
       <c r="A69">
         <v>0</v>
       </c>
@@ -37562,7 +37494,7 @@
         <v>0</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -38021,7 +37953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:181">
       <c r="A70">
         <v>0</v>
       </c>
@@ -38101,7 +38033,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -38113,7 +38045,7 @@
         <v>0</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -38434,7 +38366,7 @@
         <v>0</v>
       </c>
       <c r="EH70">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI70">
         <v>0</v>
@@ -38566,7 +38498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:181">
       <c r="A71">
         <v>0</v>
       </c>
@@ -39111,7 +39043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:181">
       <c r="A72">
         <v>0</v>
       </c>
@@ -39188,7 +39120,7 @@
         <v>0</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA72">
         <v>0</v>
@@ -39218,7 +39150,7 @@
         <v>0</v>
       </c>
       <c r="AJ72">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK72">
         <v>0</v>
@@ -39353,7 +39285,7 @@
         <v>0</v>
       </c>
       <c r="CC72">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD72">
         <v>0</v>
@@ -39584,7 +39516,7 @@
         <v>0</v>
       </c>
       <c r="FB72">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FC72">
         <v>0</v>
@@ -39656,7 +39588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:181">
       <c r="A73">
         <v>0</v>
       </c>
@@ -39742,7 +39674,7 @@
         <v>0</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD73">
         <v>0</v>
@@ -39802,7 +39734,7 @@
         <v>0</v>
       </c>
       <c r="AW73">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX73">
         <v>0</v>
@@ -40201,7 +40133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:181">
       <c r="A74">
         <v>0</v>
       </c>
@@ -40278,16 +40210,16 @@
         <v>0</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA74">
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD74">
         <v>0</v>
@@ -40746,7 +40678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:181">
       <c r="A75">
         <v>0</v>
       </c>
@@ -40826,7 +40758,7 @@
         <v>0</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -40838,10 +40770,10 @@
         <v>0</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF75">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG75">
         <v>0</v>
@@ -41291,7 +41223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:181">
       <c r="A76">
         <v>0</v>
       </c>
@@ -41452,7 +41384,7 @@
         <v>0</v>
       </c>
       <c r="BB76">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC76">
         <v>0</v>
@@ -41521,7 +41453,7 @@
         <v>0</v>
       </c>
       <c r="BY76">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BZ76">
         <v>0</v>
@@ -41635,7 +41567,7 @@
         <v>0</v>
       </c>
       <c r="DK76">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL76">
         <v>0</v>
@@ -41659,7 +41591,7 @@
         <v>0</v>
       </c>
       <c r="DS76">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT76">
         <v>0</v>
@@ -41668,7 +41600,7 @@
         <v>0</v>
       </c>
       <c r="DV76">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW76">
         <v>1</v>
@@ -41836,7 +41768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:181">
       <c r="A77">
         <v>0</v>
       </c>
@@ -41934,10 +41866,10 @@
         <v>0</v>
       </c>
       <c r="AG77">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH77">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI77">
         <v>0</v>
@@ -41976,7 +41908,7 @@
         <v>0</v>
       </c>
       <c r="AU77">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV77">
         <v>0</v>
@@ -42381,7 +42313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:181">
       <c r="A78">
         <v>0</v>
       </c>
@@ -42449,7 +42381,7 @@
         <v>0</v>
       </c>
       <c r="W78">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X78">
         <v>0</v>
@@ -42503,7 +42435,7 @@
         <v>0</v>
       </c>
       <c r="AO78">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP78">
         <v>0</v>
@@ -42620,7 +42552,7 @@
         <v>0</v>
       </c>
       <c r="CB78">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC78">
         <v>0</v>
@@ -42926,7 +42858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:181">
       <c r="A79">
         <v>0</v>
       </c>
@@ -43054,7 +42986,7 @@
         <v>0</v>
       </c>
       <c r="AQ79">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR79">
         <v>1</v>
@@ -43123,7 +43055,7 @@
         <v>0</v>
       </c>
       <c r="BN79">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO79">
         <v>0</v>
@@ -43165,7 +43097,7 @@
         <v>0</v>
       </c>
       <c r="CB79">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC79">
         <v>0</v>
@@ -43471,7 +43403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:181">
       <c r="A80">
         <v>0</v>
       </c>
@@ -43554,7 +43486,7 @@
         <v>0</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -43611,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="AU80">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV80">
         <v>0</v>
@@ -43665,7 +43597,7 @@
         <v>0</v>
       </c>
       <c r="BM80">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN80">
         <v>0</v>
@@ -43965,7 +43897,7 @@
         <v>0</v>
       </c>
       <c r="FI80">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ80">
         <v>0</v>
@@ -44016,7 +43948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:181">
       <c r="A81">
         <v>0</v>
       </c>
@@ -44561,7 +44493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:181">
       <c r="A82">
         <v>0</v>
       </c>
@@ -44662,7 +44594,7 @@
         <v>0</v>
       </c>
       <c r="AH82">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI82">
         <v>0</v>
@@ -44797,7 +44729,7 @@
         <v>0</v>
       </c>
       <c r="CA82">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB82">
         <v>0</v>
@@ -45070,7 +45002,7 @@
         <v>0</v>
       </c>
       <c r="FN82">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO82">
         <v>0</v>
@@ -45106,7 +45038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:181">
       <c r="A83">
         <v>0</v>
       </c>
@@ -45291,7 +45223,7 @@
         <v>0</v>
       </c>
       <c r="BJ83">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK83">
         <v>0</v>
@@ -45651,7 +45583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:181">
       <c r="A84">
         <v>0</v>
       </c>
@@ -45719,7 +45651,7 @@
         <v>0</v>
       </c>
       <c r="W84">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X84">
         <v>0</v>
@@ -45767,7 +45699,7 @@
         <v>0</v>
       </c>
       <c r="AM84">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN84">
         <v>0</v>
@@ -45779,7 +45711,7 @@
         <v>0</v>
       </c>
       <c r="AQ84">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR84">
         <v>0</v>
@@ -46196,7 +46128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:181">
       <c r="A85">
         <v>0</v>
       </c>
@@ -46282,7 +46214,7 @@
         <v>0</v>
       </c>
       <c r="AC85">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD85">
         <v>0</v>
@@ -46372,7 +46304,7 @@
         <v>0</v>
       </c>
       <c r="BG85">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BH85">
         <v>0</v>
@@ -46741,7 +46673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:181">
       <c r="A86">
         <v>0</v>
       </c>
@@ -46827,7 +46759,7 @@
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD86">
         <v>0</v>
@@ -46836,7 +46768,7 @@
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG86">
         <v>0</v>
@@ -46887,7 +46819,7 @@
         <v>0</v>
       </c>
       <c r="AW86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX86">
         <v>0</v>
@@ -46971,7 +46903,7 @@
         <v>0</v>
       </c>
       <c r="BY86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BZ86">
         <v>0</v>
@@ -47253,7 +47185,7 @@
         <v>0</v>
       </c>
       <c r="FO86">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP86">
         <v>0</v>
@@ -47286,7 +47218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:181">
       <c r="A87">
         <v>0</v>
       </c>
@@ -47354,7 +47286,7 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -47378,7 +47310,7 @@
         <v>0</v>
       </c>
       <c r="AE87">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -47396,7 +47328,7 @@
         <v>0</v>
       </c>
       <c r="AK87">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL87">
         <v>0</v>
@@ -47408,7 +47340,7 @@
         <v>0</v>
       </c>
       <c r="AO87">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP87">
         <v>0</v>
@@ -47417,7 +47349,7 @@
         <v>0</v>
       </c>
       <c r="AR87">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS87">
         <v>0</v>
@@ -47483,7 +47415,7 @@
         <v>0</v>
       </c>
       <c r="BN87">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO87">
         <v>0</v>
@@ -47552,7 +47484,7 @@
         <v>0</v>
       </c>
       <c r="CK87">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL87">
         <v>0</v>
@@ -47831,7 +47763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:181">
       <c r="A88">
         <v>0</v>
       </c>
@@ -48067,7 +47999,7 @@
         <v>0</v>
       </c>
       <c r="CA88">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB88">
         <v>0</v>
@@ -48376,7 +48308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:181">
       <c r="A89">
         <v>0</v>
       </c>
@@ -48459,7 +48391,7 @@
         <v>0</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -48477,7 +48409,7 @@
         <v>0</v>
       </c>
       <c r="AH89">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI89">
         <v>0</v>
@@ -48504,7 +48436,7 @@
         <v>0</v>
       </c>
       <c r="AQ89">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR89">
         <v>0</v>
@@ -48519,7 +48451,7 @@
         <v>0</v>
       </c>
       <c r="AV89">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW89">
         <v>0</v>
@@ -48921,7 +48853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:181">
       <c r="A90">
         <v>0</v>
       </c>
@@ -48998,7 +48930,7 @@
         <v>0</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA90">
         <v>0</v>
@@ -49043,7 +48975,7 @@
         <v>0</v>
       </c>
       <c r="AO90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP90">
         <v>0</v>
@@ -49052,7 +48984,7 @@
         <v>0</v>
       </c>
       <c r="AR90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS90">
         <v>0</v>
@@ -49247,10 +49179,10 @@
         <v>0</v>
       </c>
       <c r="DE90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG90">
         <v>0</v>
@@ -49361,7 +49293,7 @@
         <v>0</v>
       </c>
       <c r="EQ90">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER90">
         <v>0</v>
@@ -49466,7 +49398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:181">
       <c r="A91">
         <v>0</v>
       </c>
@@ -49543,7 +49475,7 @@
         <v>0</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA91">
         <v>0</v>
@@ -49723,7 +49655,7 @@
         <v>0</v>
       </c>
       <c r="CH91">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CI91">
         <v>0</v>
@@ -49732,7 +49664,7 @@
         <v>0</v>
       </c>
       <c r="CK91">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL91">
         <v>0</v>
@@ -50011,7 +49943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:181">
       <c r="A92">
         <v>0</v>
       </c>
@@ -50556,7 +50488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:181">
       <c r="A93">
         <v>0</v>
       </c>
@@ -51101,7 +51033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:181">
       <c r="A94">
         <v>0</v>
       </c>
@@ -51646,7 +51578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:181">
       <c r="A95">
         <v>0</v>
       </c>
@@ -51708,7 +51640,7 @@
         <v>0</v>
       </c>
       <c r="U95">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V95">
         <v>0</v>
@@ -51729,7 +51661,7 @@
         <v>0</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -51750,7 +51682,7 @@
         <v>0</v>
       </c>
       <c r="AI95">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ95">
         <v>0</v>
@@ -51765,10 +51697,10 @@
         <v>0</v>
       </c>
       <c r="AN95">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO95">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP95">
         <v>1</v>
@@ -51786,7 +51718,7 @@
         <v>0</v>
       </c>
       <c r="AU95">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV95">
         <v>0</v>
@@ -51843,7 +51775,7 @@
         <v>0</v>
       </c>
       <c r="BN95">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO95">
         <v>0</v>
@@ -51882,7 +51814,7 @@
         <v>0</v>
       </c>
       <c r="CA95">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB95">
         <v>0</v>
@@ -52191,7 +52123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:181">
       <c r="A96">
         <v>0</v>
       </c>
@@ -52253,7 +52185,7 @@
         <v>0</v>
       </c>
       <c r="U96">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V96">
         <v>0</v>
@@ -52274,7 +52206,7 @@
         <v>0</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -52313,7 +52245,7 @@
         <v>0</v>
       </c>
       <c r="AO96">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP96">
         <v>0</v>
@@ -52331,7 +52263,7 @@
         <v>0</v>
       </c>
       <c r="AU96">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV96">
         <v>0</v>
@@ -52340,7 +52272,7 @@
         <v>0</v>
       </c>
       <c r="AX96">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AY96">
         <v>0</v>
@@ -52427,10 +52359,10 @@
         <v>0</v>
       </c>
       <c r="CA96">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB96">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC96">
         <v>0</v>
@@ -52631,7 +52563,7 @@
         <v>0</v>
       </c>
       <c r="EQ96">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER96">
         <v>0</v>
@@ -52736,7 +52668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:181">
       <c r="A97">
         <v>0</v>
       </c>
@@ -53281,7 +53213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:181">
       <c r="A98">
         <v>0</v>
       </c>
@@ -53826,7 +53758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:181">
       <c r="A99">
         <v>0</v>
       </c>
@@ -54371,7 +54303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:181">
       <c r="A100">
         <v>0</v>
       </c>
@@ -54613,7 +54545,7 @@
         <v>0</v>
       </c>
       <c r="CC100">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD100">
         <v>0</v>
@@ -54784,7 +54716,7 @@
         <v>0</v>
       </c>
       <c r="EH100">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI100">
         <v>0</v>
@@ -54916,7 +54848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:181">
       <c r="A101">
         <v>0</v>
       </c>
@@ -55029,7 +54961,7 @@
         <v>0</v>
       </c>
       <c r="AL101">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM101">
         <v>0</v>
@@ -55056,7 +54988,7 @@
         <v>0</v>
       </c>
       <c r="AU101">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV101">
         <v>0</v>
@@ -55140,7 +55072,7 @@
         <v>0</v>
       </c>
       <c r="BW101">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX101">
         <v>0</v>
@@ -55170,7 +55102,7 @@
         <v>0</v>
       </c>
       <c r="CG101">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH101">
         <v>0</v>
@@ -55461,7 +55393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:181">
       <c r="A102">
         <v>0</v>
       </c>
@@ -55607,7 +55539,7 @@
         <v>0</v>
       </c>
       <c r="AW102">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX102">
         <v>0</v>
@@ -55649,7 +55581,7 @@
         <v>0</v>
       </c>
       <c r="BK102">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL102">
         <v>0</v>
@@ -55715,7 +55647,7 @@
         <v>0</v>
       </c>
       <c r="CG102">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH102">
         <v>0</v>
@@ -56006,7 +55938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:181">
       <c r="A103">
         <v>0</v>
       </c>
@@ -56092,7 +56024,7 @@
         <v>0</v>
       </c>
       <c r="AC103">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD103">
         <v>0</v>
@@ -56107,7 +56039,7 @@
         <v>0</v>
       </c>
       <c r="AH103">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI103">
         <v>0</v>
@@ -56332,7 +56264,7 @@
         <v>0</v>
       </c>
       <c r="DE103">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF103">
         <v>0</v>
@@ -56551,7 +56483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:181">
       <c r="A104">
         <v>0</v>
       </c>
@@ -56679,7 +56611,7 @@
         <v>0</v>
       </c>
       <c r="AQ104">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR104">
         <v>0</v>
@@ -56694,7 +56626,7 @@
         <v>0</v>
       </c>
       <c r="AV104">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW104">
         <v>0</v>
@@ -57096,7 +57028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:181">
       <c r="A105">
         <v>0</v>
       </c>
@@ -57197,7 +57129,7 @@
         <v>0</v>
       </c>
       <c r="AH105">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI105">
         <v>0</v>
@@ -57284,7 +57216,7 @@
         <v>0</v>
       </c>
       <c r="BK105">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL105">
         <v>0</v>
@@ -57605,7 +57537,7 @@
         <v>0</v>
       </c>
       <c r="FN105">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO105">
         <v>0</v>
@@ -57641,7 +57573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:181">
       <c r="A106">
         <v>0</v>
       </c>
@@ -57721,19 +57653,19 @@
         <v>0</v>
       </c>
       <c r="AA106">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC106">
         <v>0</v>
       </c>
       <c r="AD106">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE106">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -57817,7 +57749,7 @@
         <v>0</v>
       </c>
       <c r="BG106">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BH106">
         <v>0</v>
@@ -57982,7 +57914,7 @@
         <v>0</v>
       </c>
       <c r="DJ106">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK106">
         <v>0</v>
@@ -58186,7 +58118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:181">
       <c r="A107">
         <v>0</v>
       </c>
@@ -58422,7 +58354,7 @@
         <v>0</v>
       </c>
       <c r="CA107">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB107">
         <v>0</v>
@@ -58731,7 +58663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:181">
       <c r="A108">
         <v>0</v>
       </c>
@@ -58808,7 +58740,7 @@
         <v>0</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA108">
         <v>0</v>
@@ -58976,7 +58908,7 @@
         <v>0</v>
       </c>
       <c r="CD108">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE108">
         <v>0</v>
@@ -59057,7 +58989,7 @@
         <v>0</v>
       </c>
       <c r="DE108">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF108">
         <v>0</v>
@@ -59276,7 +59208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:181" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:181">
       <c r="A109">
         <v>0</v>
       </c>
@@ -59461,16 +59393,16 @@
         <v>0</v>
       </c>
       <c r="BJ109">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK109">
         <v>0</v>
       </c>
       <c r="BL109">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM109">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN109">
         <v>0</v>
@@ -59533,7 +59465,7 @@
         <v>0</v>
       </c>
       <c r="CH109">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CI109">
         <v>0</v>
@@ -59827,554 +59759,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1">
       <c r="A103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1">
       <c r="A104">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1">
       <c r="A107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1">
       <c r="A108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1">
       <c r="A109">
         <v>3</v>
       </c>
@@ -60385,297 +60317,294 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="B1:I15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>3</v>
       </c>
